--- a/5.Control/OCAP TRE.xlsx
+++ b/5.Control/OCAP TRE.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2BB1F571-8DEB-4C30-8C88-4FA9456CFEDD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="20">
   <si>
     <t>SETOR</t>
   </si>
@@ -40,51 +41,119 @@
     <t>2 vezes / mês</t>
   </si>
   <si>
-    <t>- Se reunir com todos os Chefes dos setores e verificar os motivos que levaram a não ocorrer as reuniões.
+    <t>CSTA</t>
+  </si>
+  <si>
+    <t>SAPRE</t>
+  </si>
+  <si>
+    <t>SMIN</t>
+  </si>
+  <si>
+    <t>SMIC</t>
+  </si>
+  <si>
+    <t>SESEG</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>1 veze / semana.</t>
+  </si>
+  <si>
+    <t>1 vezes / mês</t>
+  </si>
+  <si>
+    <t>FREQUÊNCIA MÍNIMA</t>
+  </si>
+  <si>
+    <t>Média de dias de tramitação</t>
+  </si>
+  <si>
+    <t>- Realizar reunião com todos os Chefes dos setores e verificar os motivos que levaram a não ocorrer as reuniões.
 - Sugerir uma nova frequência para a reunião.</t>
   </si>
   <si>
-    <t>CSTA</t>
-  </si>
-  <si>
-    <t>SAPRE</t>
-  </si>
-  <si>
-    <t>SMIN</t>
-  </si>
-  <si>
-    <t>SMIC</t>
-  </si>
-  <si>
-    <t>SESEG</t>
-  </si>
-  <si>
-    <t>ST</t>
-  </si>
-  <si>
-    <t>1 veze / semana.</t>
-  </si>
-  <si>
-    <t>1 vezes / mês</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 'Caso não seja possível recuperar a média, deve se entrar em contato com os representantes da TI, e verificar o motivo do indíce das médias não estar sendo gerado.
-- Caso o índice nao seja gerado, é necessario o controle manual dos valores médios, para manutenção da etapa do Control.</t>
-  </si>
-  <si>
-    <t>FREQUÊNCIA MÍNIMA</t>
-  </si>
-  <si>
-    <t>DURANTE AS REUNIOES DE KANBAN MOSTRAR O LEADTIME, CASO PASSAR O LEADTIME, TOMAR ALGUMA AÇÃO.</t>
-  </si>
-  <si>
-    <t>Média de dias de tramitação</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Caso o Leadtime ultrapassar o limite estabelecido:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+    - Identificar qual é o Setor em que aconteceu o aumento de tempo no processo;
+    - Realizar reunião com o Setor responsãvel para entender os motivos que levaram o aumento do tempo no processo que ocasionou a ultrapassagem do limite do Leadtime;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-  Caso a média/desvio padrão sejam ultrapassem os limites estabelecidos: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    - Deve se entrar em contato com os representantes da TI, e verificar o motivo do indíce das médias não estar sendo gerado;
+    - Identificar qual é o Setor em que aconteceu o aumento da média;
+    - Realizar reunião com o Setor responsãvel para entender os motivos que levaram o aumento da média;
+    - Verificar se existe a necessidade de ajuda extra e/ou pessoas adicionais trabalhando no processo que está atrasando.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  - Caso o índice não seja gerado: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+     - É necessário o controle manual dos valores médios, para manutenção da etapa do Control.
+</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -163,11 +232,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -187,7 +256,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -262,6 +331,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -297,6 +383,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -472,22 +575,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20.77734375" customWidth="1"/>
-    <col min="5" max="5" width="43.88671875" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="54.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -498,13 +601,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -517,13 +620,13 @@
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -534,118 +637,116 @@
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="115.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/5.Control/OCAP TRE.xlsx
+++ b/5.Control/OCAP TRE.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2BB1F571-8DEB-4C30-8C88-4FA9456CFEDD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>SETOR</t>
   </si>
@@ -27,9 +26,6 @@
   </si>
   <si>
     <t>MEDIÇÃO IDEAL</t>
-  </si>
-  <si>
-    <t>PLANO DE REAÇÃO</t>
   </si>
   <si>
     <t>CIP</t>
@@ -84,31 +80,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>- Caso o Leadtime ultrapassar o limite estabelecido:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-    - Identificar qual é o Setor em que aconteceu o aumento de tempo no processo;
-    - Realizar reunião com o Setor responsãvel para entender os motivos que levaram o aumento do tempo no processo que ocasionou a ultrapassagem do limite do Leadtime;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">-  Caso a média/desvio padrão sejam ultrapassem os limites estabelecidos: </t>
+      <t xml:space="preserve">Caso a média/desvio padrão sejam ultrapassem os limites estabelecidos: </t>
     </r>
     <r>
       <rPr>
@@ -119,7 +91,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-    - Deve se entrar em contato com os representantes da TI, e verificar o motivo do indíce das médias não estar sendo gerado;
     - Identificar qual é o Setor em que aconteceu o aumento da média;
     - Realizar reunião com o Setor responsãvel para entender os motivos que levaram o aumento da média;
     - Verificar se existe a necessidade de ajuda extra e/ou pessoas adicionais trabalhando no processo que está atrasando.
@@ -134,7 +105,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">  - Caso o índice não seja gerado: </t>
+      <t xml:space="preserve">Caso o índice não seja gerado: </t>
     </r>
     <r>
       <rPr>
@@ -145,15 +116,19 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
+    - Deve se entrar em contato com os representantes da TI, e verificar o motivo do indíce das médias não estar sendo gerado;
      - É necessário o controle manual dos valores médios, para manutenção da etapa do Control.
 </t>
     </r>
+  </si>
+  <si>
+    <t>PLANO DE CONTINGENCIA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -220,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -232,11 +207,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -256,7 +237,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -331,23 +312,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -383,23 +347,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -575,22 +522,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="54.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="54.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -601,157 +548,121 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" ht="115.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="8">
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E4:E10"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C10"/>
+    <mergeCell ref="D4:D10"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
